--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352629.456113317</v>
+        <v>1355949.002386223</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>204.4993614069768</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>53.3627244434327</v>
+        <v>34.67962694720998</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F5" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>136.9013455552336</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.8366723382224</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>196.4098931065906</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>192.5500720523643</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>146.8920447697784</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>58.03554883267024</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>130.0646822814658</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>95.16904316421414</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1865,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.74905915623028</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1944,7 +1944,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2041,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2084,59 +2084,59 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>131.7659851933074</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>28.41964442677787</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,19 +2400,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>100.9332433248028</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>84.4730545048111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,43 +2488,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>36.66338632747601</v>
+        <v>63.92604592956821</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,16 +2682,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,70 +2795,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>29.99839241143703</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>25.52452633447239</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.18032238670132</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,25 +3308,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>84.97365353379641</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,10 +3506,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>31.19450780517052</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.80306451525648</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3782,31 +3782,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>86.48406825923605</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>71.73751301002204</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>80.86228322859426</v>
+        <v>119.1003526907495</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.84423892561444</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C2" t="n">
-        <v>38.84423892561444</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D2" t="n">
-        <v>38.84423892561444</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E2" t="n">
-        <v>38.84423892561444</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4340,10 +4340,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4355,25 +4355,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>454.031803447393</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>454.031803447393</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>454.031803447393</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>246.4380211865037</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>38.84423892561444</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X2" t="n">
-        <v>38.84423892561444</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.84423892561444</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.2691667366082</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C3" t="n">
-        <v>379.2691667366082</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="D3" t="n">
-        <v>230.3347570753569</v>
+        <v>190.9563118345357</v>
       </c>
       <c r="E3" t="n">
-        <v>71.09730206990139</v>
+        <v>190.9563118345357</v>
       </c>
       <c r="F3" t="n">
-        <v>71.09730206990139</v>
+        <v>190.9563118345357</v>
       </c>
       <c r="G3" t="n">
-        <v>71.09730206990139</v>
+        <v>52.22548641715116</v>
       </c>
       <c r="H3" t="n">
-        <v>71.09730206990139</v>
+        <v>52.22548641715116</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4422,7 +4422,7 @@
         <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4440,19 +4440,19 @@
         <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X3" t="n">
-        <v>547.4845037566762</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.4845037566762</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="4">
@@ -4507,16 +4507,16 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
         <v>16.44142755506243</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="C5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="D5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="E5" t="n">
-        <v>396.792197863116</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="F5" t="n">
+        <v>459.1562919452729</v>
+      </c>
+      <c r="G5" t="n">
+        <v>443.6989813239244</v>
+      </c>
+      <c r="H5" t="n">
         <v>236.1051990630351</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28.51141680214578</v>
-      </c>
-      <c r="H5" t="n">
-        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4568,10 +4568,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4598,10 +4598,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
         <v>604.3859801240053</v>
@@ -4610,7 +4610,7 @@
         <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253.275614671021</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="C6" t="n">
-        <v>253.275614671021</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="D6" t="n">
-        <v>253.275614671021</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="E6" t="n">
-        <v>253.275614671021</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="F6" t="n">
-        <v>106.7410566979059</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="G6" t="n">
-        <v>106.7410566979059</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H6" t="n">
         <v>106.7410566979059</v>
@@ -4656,7 +4656,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>781.8323147852202</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>781.8323147852202</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>781.8323147852202</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>574.2385325243309</v>
       </c>
       <c r="V6" t="n">
-        <v>421.490951691089</v>
+        <v>574.2385325243309</v>
       </c>
       <c r="W6" t="n">
-        <v>421.490951691089</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="X6" t="n">
-        <v>421.490951691089</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="Y6" t="n">
-        <v>421.490951691089</v>
+        <v>366.6447502634417</v>
       </c>
     </row>
     <row r="7">
@@ -4702,16 +4702,16 @@
         <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
         <v>16.44142755506243</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C8" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E8" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F8" t="n">
-        <v>238.4637496986098</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>223.0064390772613</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
         <v>28.51141680214578</v>
@@ -4805,10 +4805,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>245.4092504478133</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="Y8" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>488.8627372590295</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C9" t="n">
-        <v>314.4097079779024</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D9" t="n">
-        <v>314.4097079779024</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E9" t="n">
-        <v>155.1722529724469</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>488.8627372590295</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>488.8627372590295</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>488.8627372590295</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W9" t="n">
-        <v>488.8627372590295</v>
+        <v>315.088971611581</v>
       </c>
       <c r="X9" t="n">
-        <v>488.8627372590295</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y9" t="n">
-        <v>488.8627372590295</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="10">
@@ -4978,31 +4978,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
         <v>16.44142755506243</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5048,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5066,25 +5066,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X11" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Y11" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5130,7 +5130,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5151,19 +5151,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V12" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W12" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X12" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="W12" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="X12" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D14" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E14" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>446.2622584721643</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>271.8092291910373</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>175.6788825605179</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5400,7 +5400,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>259.0600686093459</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5689,16 +5689,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>152.3780978509273</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>152.3780978509273</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.3780978509273</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.6552238493341</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C24" t="n">
-        <v>419.2021945682071</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="D24" t="n">
-        <v>317.2494235330527</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y24" t="n">
-        <v>761.8705608694022</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>419.9752190668252</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C27" t="n">
-        <v>419.9752190668252</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D27" t="n">
-        <v>419.9752190668252</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E27" t="n">
-        <v>260.7377640613697</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="F27" t="n">
-        <v>260.7377640613697</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,16 +6309,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>627.7355178317791</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>627.7355178317791</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>419.9752190668252</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="28">
@@ -6412,10 +6412,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>310.5702840197694</v>
+        <v>49.58254958641174</v>
       </c>
       <c r="C30" t="n">
-        <v>136.1172547386423</v>
+        <v>49.58254958641174</v>
       </c>
       <c r="D30" t="n">
-        <v>136.1172547386423</v>
+        <v>49.58254958641174</v>
       </c>
       <c r="E30" t="n">
-        <v>136.1172547386423</v>
+        <v>49.58254958641174</v>
       </c>
       <c r="F30" t="n">
-        <v>136.1172547386423</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1172547386423</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.5702840197694</v>
+        <v>217.7978866064798</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>241.7186438601369</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>241.7186438601369</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>241.7186438601369</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X32" t="n">
-        <v>241.7186438601369</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6880,19 +6880,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7053,13 +7053,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7117,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>197.3253049269343</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="C39" t="n">
-        <v>197.3253049269343</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="D39" t="n">
-        <v>197.3253049269343</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="E39" t="n">
-        <v>197.3253049269343</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="F39" t="n">
-        <v>50.79074695381931</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>46.35494565087583</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>46.35494565087583</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>432.4774131586771</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>197.3253049269343</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W39" t="n">
-        <v>197.3253049269343</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X39" t="n">
-        <v>197.3253049269343</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.3253049269343</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7412,13 +7412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7430,31 +7430,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>255.5008658160403</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>47.90708355515102</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>47.90708355515102</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>278.2521015424885</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C42" t="n">
-        <v>103.7990722613615</v>
+        <v>237.8379715698713</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>88.90356190862005</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,13 +7491,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W42" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X42" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y42" t="n">
-        <v>446.4674385625565</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
         <v>16.44142755506243</v>
@@ -7588,31 +7588,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,34 +7655,34 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
         <v>431.628992076841</v>
@@ -7691,7 +7691,7 @@
         <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="F45" t="n">
-        <v>98.12050152333947</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7770,7 +7770,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8070,10 +8070,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8304,10 +8304,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8541,16 +8541,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>269.7148239424616</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8778,10 +8778,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9957,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10200,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,13 +10440,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,16 +11385,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23306,25 +23306,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,7 +23352,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>64.93916505516172</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23391,19 +23391,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>24.75286782224003</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,7 +23495,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>356.0618809000771</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23552,10 +23552,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>52.27602240042461</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,10 +23738,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23823,7 +23823,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>101.5944580069803</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23832,7 +23832,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23929,19 +23929,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23972,16 +23972,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>40.94251379500832</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>83.8157998097186</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,16 +24257,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,19 +24288,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>46.51182223983591</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>27.76238973168536</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24522,25 +24522,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>100.6801308357346</v>
+        <v>73.41747123364243</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24652,13 +24652,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,13 +24683,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,19 +24768,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>115.0708199819469</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>86.71091790202408</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24822,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>186.6629199992865</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,13 +25011,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>35.05512184979514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,25 +25196,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>27.26179070270005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25394,10 +25394,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25479,16 +25479,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>106.1490093580401</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>62.5935683361586</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,10 +25600,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>318.0899692773253</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>60.9609973054027</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>85.9075674453789</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25828,10 +25828,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,16 +25907,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>56.48123393461637</v>
+        <v>18.24316447246117</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362842.5762203429</v>
+        <v>362842.5762203431</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362842.5762203431</v>
+        <v>362842.5762203432</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382169.5468220647</v>
+        <v>382169.5468220648</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382169.5468220648</v>
+        <v>382169.5468220647</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382169.5468220647</v>
+        <v>382169.5468220648</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382169.5468220648</v>
+        <v>382169.5468220647</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362842.5762203429</v>
+        <v>362842.5762203431</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
@@ -26323,37 +26323,37 @@
         <v>189309.1702019179</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="G2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="H2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="I2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="J2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="K2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="L2" t="n">
         <v>199392.8070375987</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>199392.8070375987</v>
       </c>
-      <c r="J2" t="n">
-        <v>199392.8070375987</v>
-      </c>
-      <c r="K2" t="n">
-        <v>199392.8070375987</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>199392.8070375988</v>
-      </c>
-      <c r="M2" t="n">
-        <v>199392.8070375988</v>
-      </c>
-      <c r="N2" t="n">
-        <v>199392.8070375987</v>
       </c>
       <c r="O2" t="n">
         <v>189309.1702019179</v>
       </c>
       <c r="P2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="C4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="D4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88548.89326976522</v>
+        <v>88936.53468865139</v>
       </c>
       <c r="C6" t="n">
-        <v>157422.6498514549</v>
+        <v>157810.2912703413</v>
       </c>
       <c r="D6" t="n">
-        <v>157422.6498514548</v>
+        <v>157810.2912703412</v>
       </c>
       <c r="E6" t="n">
-        <v>176272.2322822509</v>
+        <v>176659.8737011372</v>
       </c>
       <c r="F6" t="n">
-        <v>176272.2322822509</v>
+        <v>176659.8737011373</v>
       </c>
       <c r="G6" t="n">
-        <v>174421.9896295228</v>
+        <v>174830.562801966</v>
       </c>
       <c r="H6" t="n">
-        <v>184151.0326036898</v>
+        <v>184559.6057761331</v>
       </c>
       <c r="I6" t="n">
-        <v>184151.0326036898</v>
+        <v>184559.6057761332</v>
       </c>
       <c r="J6" t="n">
-        <v>130378.5217134803</v>
+        <v>130787.0948859237</v>
       </c>
       <c r="K6" t="n">
-        <v>184151.0326036898</v>
+        <v>184559.6057761331</v>
       </c>
       <c r="L6" t="n">
-        <v>184151.0326036898</v>
+        <v>184559.6057761331</v>
       </c>
       <c r="M6" t="n">
-        <v>184151.0326036898</v>
+        <v>184559.605776133</v>
       </c>
       <c r="N6" t="n">
-        <v>184151.0326036898</v>
+        <v>184559.6057761332</v>
       </c>
       <c r="O6" t="n">
-        <v>176272.2322822509</v>
+        <v>176659.8737011373</v>
       </c>
       <c r="P6" t="n">
-        <v>176272.2322822509</v>
+        <v>176659.8737011373</v>
       </c>
     </row>
   </sheetData>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>372.7193592013314</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.520708179268553</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,16 +27436,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>36.03390840798237</v>
+        <v>54.7170059042051</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062294</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>247.7959169296313</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>249.33659310082</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>60.32116181442073</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>36.39069404283464</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836632</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>37.52545250819725</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>146.9247300634028</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27895,31 +27895,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>222.8390559086907</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27932,28 +27932,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>142.1291798621514</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>121.6303008794538</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="11">
@@ -34708,13 +34708,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35024,10 +35024,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35261,16 +35261,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
-        <v>127.1185794980172</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,13 +36920,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,13 +37160,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,16 +38105,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1355949.002386223</v>
+        <v>1356733.148324252</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -665,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>24.27495369837627</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34.67962694720998</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>136.9013455552336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.8366723382224</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>68.05015880764056</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>139.8320880568607</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>130.0646822814658</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1503,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1935,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2084,11 +2086,11 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>230.2038249569697</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41964442677787</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2239,73 +2241,73 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>20.00655925198968</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>84.4730545048111</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2518,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>17.37591758006101</v>
       </c>
       <c r="G27" t="n">
-        <v>63.92604592956821</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2688,13 +2690,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2810,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.93311775391589</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>29.99839241143703</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>13.29597664015432</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3035,64 +3037,64 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>230.2038249569697</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3269,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.1497834296626</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>55.78398704713962</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.80306451525648</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3740,67 +3742,67 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>21.16030022554286</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>71.73751301002204</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3864,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>86.21539897205298</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,13 +3945,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>47.02492433367362</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4062,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>62.35969771424954</v>
       </c>
       <c r="G45" t="n">
-        <v>119.1003526907495</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>453.0030327087026</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C2" t="n">
-        <v>453.0030327087026</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="D2" t="n">
-        <v>453.0030327087026</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E2" t="n">
-        <v>443.6989813239244</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>248.5553650668369</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>40.96158280594756</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W2" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X2" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.0030327087026</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>190.9563118345357</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>190.9563118345357</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>190.9563118345357</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>52.22548641715116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>52.22548641715116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4437,22 +4439,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4519,13 +4521,13 @@
         <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
         <v>16.44142755506243</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>466.1017926944764</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C5" t="n">
-        <v>466.1017926944764</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D5" t="n">
-        <v>466.1017926944764</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="E5" t="n">
-        <v>466.1017926944764</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F5" t="n">
-        <v>459.1562919452729</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G5" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4598,19 +4600,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y5" t="n">
-        <v>466.1017926944764</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366.6447502634417</v>
+        <v>579.9164990546586</v>
       </c>
       <c r="C6" t="n">
-        <v>366.6447502634417</v>
+        <v>405.4634697735316</v>
       </c>
       <c r="D6" t="n">
-        <v>366.6447502634417</v>
+        <v>405.4634697735316</v>
       </c>
       <c r="E6" t="n">
-        <v>366.6447502634417</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F6" t="n">
-        <v>220.1101922903266</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G6" t="n">
-        <v>220.1101922903266</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>781.8323147852202</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>781.8323147852202</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>781.8323147852202</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>574.2385325243309</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>574.2385325243309</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W6" t="n">
-        <v>366.6447502634417</v>
+        <v>579.9164990546586</v>
       </c>
       <c r="X6" t="n">
-        <v>366.6447502634417</v>
+        <v>579.9164990546586</v>
       </c>
       <c r="Y6" t="n">
-        <v>366.6447502634417</v>
+        <v>579.9164990546586</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
         <v>16.44142755506243</v>
@@ -4768,7 +4770,7 @@
         <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>258.5080104335871</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>258.5080104335871</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>258.5080104335871</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>258.5080104335871</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>251.5625096843836</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4844,10 +4846,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>466.1017926944764</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>258.5080104335871</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.4951893506917</v>
+        <v>305.0177250813958</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4884,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4908,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>680.8268443623532</v>
       </c>
       <c r="V9" t="n">
-        <v>446.4674385625565</v>
+        <v>680.8268443623532</v>
       </c>
       <c r="W9" t="n">
-        <v>315.088971611581</v>
+        <v>680.8268443623532</v>
       </c>
       <c r="X9" t="n">
-        <v>107.4951893506917</v>
+        <v>473.2330621014639</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.4951893506917</v>
+        <v>473.2330621014639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="H11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5066,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5127,10 +5129,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5151,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5218,31 +5220,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y14" t="n">
-        <v>453.0030327087026</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5388,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5455,31 +5457,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,13 +5694,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y21" t="n">
-        <v>481.7099827492369</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>962.2293816994886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C23" t="n">
-        <v>962.2293816994886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D23" t="n">
-        <v>962.2293816994886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E23" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W23" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X23" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y23" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>279.0604900729671</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C24" t="n">
-        <v>104.6074607918401</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D24" t="n">
-        <v>104.6074607918401</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>104.6074607918401</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>104.6074607918401</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>104.6074607918401</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>655.0361258579891</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>447.2758270930352</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6166,13 +6168,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>259.0600686093459</v>
+        <v>345.004439675971</v>
       </c>
       <c r="C27" t="n">
-        <v>84.60703932821886</v>
+        <v>345.004439675971</v>
       </c>
       <c r="D27" t="n">
-        <v>84.60703932821886</v>
+        <v>196.0700300147197</v>
       </c>
       <c r="E27" t="n">
-        <v>84.60703932821886</v>
+        <v>36.83257500926425</v>
       </c>
       <c r="F27" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X27" t="n">
-        <v>259.0600686093459</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y27" t="n">
-        <v>259.0600686093459</v>
+        <v>345.004439675971</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>712.7511606524439</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.58254958641174</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C30" t="n">
-        <v>49.58254958641174</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="D30" t="n">
-        <v>49.58254958641174</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="E30" t="n">
-        <v>49.58254958641174</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>237.1343199327619</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6554,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>461.2466632505798</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>461.2466632505798</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>217.7978866064798</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>217.7978866064798</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y30" t="n">
-        <v>217.7978866064798</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C32" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D32" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E32" t="n">
-        <v>495.259035872464</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F32" t="n">
-        <v>495.259035872464</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W32" t="n">
-        <v>738.7078125165641</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X32" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y32" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y35" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7053,13 +7055,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7120,22 +7122,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7207,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>185.0857710682603</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>185.0857710682603</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>185.0857710682603</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>185.0857710682603</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>185.0857710682603</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>46.35494565087583</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>46.35494565087583</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>353.3011080883284</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7418,43 +7420,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>237.8379715698713</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>88.90356190862005</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7493,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W42" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X42" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7591,10 +7593,10 @@
         <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7667,13 +7669,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
         <v>431.628992076841</v>
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>137.4989467641607</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C45" t="n">
-        <v>137.4989467641607</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D45" t="n">
-        <v>137.4989467641607</v>
+        <v>238.668476211275</v>
       </c>
       <c r="E45" t="n">
-        <v>137.4989467641607</v>
+        <v>79.43102120581955</v>
       </c>
       <c r="F45" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,46 +7733,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="46">
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8541,16 +8543,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8775,13 +8777,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9495,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -9969,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>295.1552315763977</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,10 +10442,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,13 +11381,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>64.93916505516172</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23391,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C14" t="n">
-        <v>356.0618809000771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23552,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23674,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23823,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23972,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24020,10 +24022,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>139.5272757214993</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>109.6162833128638</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>83.8157998097186</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>130.1411825545859</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>146.5266243978777</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>27.76238973168536</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24345,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24406,16 +24408,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>127.6932948133229</v>
       </c>
       <c r="G27" t="n">
-        <v>73.41747123364243</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24698,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>120.0869518323294</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>115.0708199819469</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>124.0475405230563</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24892,10 +24894,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>185.0989125581653</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,25 +24964,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>121.6254758352848</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25157,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25205,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>56.45145718935684</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25445,16 +25447,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>62.5935683361586</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25628,7 +25630,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>85.9075674453789</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25752,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>85.46777213178484</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946079</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,7 +25918,7 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>42.07573218289394</v>
+        <v>52.06643139743875</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25950,13 +25952,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>82.70951467913434</v>
       </c>
       <c r="G45" t="n">
-        <v>18.24316447246117</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362842.5762203432</v>
+        <v>362842.5762203431</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382169.5468220648</v>
+        <v>382169.5468220647</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382169.5468220648</v>
+        <v>382169.5468220647</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382169.5468220647</v>
+        <v>382169.5468220648</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382169.5468220648</v>
+        <v>382169.5468220647</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382169.5468220647</v>
+        <v>382169.5468220648</v>
       </c>
     </row>
     <row r="14">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>189309.170201918</v>
+      </c>
+      <c r="F2" t="n">
         <v>189309.1702019179</v>
       </c>
-      <c r="F2" t="n">
-        <v>189309.170201918</v>
-      </c>
       <c r="G2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="H2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="I2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="L2" t="n">
         <v>199392.8070375987</v>
@@ -26350,10 +26352,10 @@
         <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="P2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
     </row>
     <row r="3">
@@ -26448,7 +26450,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88936.53468865139</v>
+        <v>88936.53468865147</v>
       </c>
       <c r="C6" t="n">
         <v>157810.2912703413</v>
       </c>
       <c r="D6" t="n">
-        <v>157810.2912703412</v>
+        <v>157810.2912703413</v>
       </c>
       <c r="E6" t="n">
-        <v>176659.8737011372</v>
+        <v>176659.8737011373</v>
       </c>
       <c r="F6" t="n">
         <v>176659.8737011373</v>
@@ -26540,7 +26542,7 @@
         <v>184559.6057761331</v>
       </c>
       <c r="I6" t="n">
-        <v>184559.6057761332</v>
+        <v>184559.605776133</v>
       </c>
       <c r="J6" t="n">
         <v>130787.0948859237</v>
@@ -26552,10 +26554,10 @@
         <v>184559.6057761331</v>
       </c>
       <c r="M6" t="n">
-        <v>184559.605776133</v>
+        <v>184559.6057761331</v>
       </c>
       <c r="N6" t="n">
-        <v>184559.6057761332</v>
+        <v>184559.6057761331</v>
       </c>
       <c r="O6" t="n">
         <v>176659.8737011373</v>
@@ -27385,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>372.7193592013314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>315.1998484173909</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>54.7170059042051</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,13 +27511,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062294</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877564</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>222.8502412601817</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>249.33659310082</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.32116181442073</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>183.644824353279</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.78129424836632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>241.1586658756091</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>222.8390559086907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27982,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>86.10929402411409</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>121.6303008794538</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630766</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35021,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35261,16 +35263,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N11" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35495,13 +35497,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>161.1808241620674</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,10 +37162,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N41" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N44" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N44" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1356733.148324252</v>
+        <v>1287072.812649724</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>199.4261177940757</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>24.27495369837627</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -712,7 +712,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15.7530116487194</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>120.0500723064956</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>159.0801288120801</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="F5" t="n">
         <v>205.5178444382804</v>
@@ -913,7 +913,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>68.05015880764056</v>
+        <v>84.00145925270523</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>165.7173798661024</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>54.97933811727043</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>139.8320880568607</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1375,70 +1375,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>181.0201173812374</v>
+        <v>80.11569190233639</v>
       </c>
       <c r="V12" t="n">
         <v>205.5178444382804</v>
@@ -1514,10 +1514,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>136.9590004198107</v>
       </c>
       <c r="X15" t="n">
         <v>205.5178444382804</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>15.50991635950221</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.91690033700354</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>219.242097979905</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.00655925198968</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>71.89345666195496</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17.37591758006101</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2794,11 +2794,11 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>88.93311775391589</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>13.29597664015432</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>94.41048699370604</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>55.78398704713962</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>86.21539897205298</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>47.02492433367362</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3991,55 +3991,55 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H44" t="n">
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>62.35969771424954</v>
+        <v>119.0247444220177</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C2" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F2" t="n">
-        <v>248.5553650668369</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>40.96158280594756</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4342,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>146.4768287787733</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4415,7 +4415,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
         <v>345.2616536067974</v>
@@ -4436,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4530,10 +4530,10 @@
         <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E5" t="n">
-        <v>651.2927635848137</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F5" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
         <v>28.51141680214578</v>
@@ -4591,28 +4591,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579.9164990546586</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C6" t="n">
-        <v>405.4634697735316</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D6" t="n">
-        <v>405.4634697735316</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E6" t="n">
-        <v>246.2260147680761</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F6" t="n">
-        <v>246.2260147680761</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
         <v>107.4951893506917</v>
@@ -4649,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>579.9164990546586</v>
+        <v>636.0518894648909</v>
       </c>
       <c r="X6" t="n">
-        <v>579.9164990546586</v>
+        <v>428.4581072040016</v>
       </c>
       <c r="Y6" t="n">
-        <v>579.9164990546586</v>
+        <v>220.8643249431123</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4767,10 +4767,10 @@
         <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.0177250813958</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="C9" t="n">
-        <v>130.5646958002688</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="D9" t="n">
-        <v>130.5646958002688</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E9" t="n">
-        <v>130.5646958002688</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4886,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="U9" t="n">
-        <v>680.8268443623532</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="V9" t="n">
-        <v>680.8268443623532</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="W9" t="n">
-        <v>680.8268443623532</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="X9" t="n">
-        <v>473.2330621014639</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="Y9" t="n">
-        <v>473.2330621014639</v>
+        <v>665.3671633390675</v>
       </c>
     </row>
     <row r="10">
@@ -4947,22 +4947,22 @@
         <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5050,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>639.2227743377304</v>
+        <v>639.976906990516</v>
       </c>
       <c r="V12" t="n">
-        <v>431.628992076841</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
         <v>16.44142755506243</v>
@@ -5287,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X14" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
         <v>16.44142755506243</v>
@@ -5363,10 +5363,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
         <v>435.9652341458732</v>
@@ -5390,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>476.1351708257569</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>34.94772529152809</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>34.94772529152809</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5597,13 +5597,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>933.9571464551993</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>209.4007545726551</v>
       </c>
     </row>
     <row r="19">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5843,13 +5843,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>735.8335372470253</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>492.3847606029253</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="X21" t="n">
-        <v>284.5332603973924</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="Y21" t="n">
-        <v>76.77296163243852</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>284.787934186969</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C24" t="n">
-        <v>110.334904905842</v>
+        <v>379.5660313827424</v>
       </c>
       <c r="D24" t="n">
-        <v>110.334904905842</v>
+        <v>230.6316217214911</v>
       </c>
       <c r="E24" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,28 +6247,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
         <v>262.7299197543128</v>
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>196.0700300147197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>36.83257500926425</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>345.004439675971</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>345.004439675971</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>712.7511606524439</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>237.1343199327619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>237.1343199327619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>237.1343199327619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>237.1343199327619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6648,10 +6648,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>114.6452713866835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,28 +6958,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
         <v>506.1786963984129</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>166.6823665696193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>166.6823665696193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6192102101089</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>467.067986854209</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X38" t="n">
-        <v>223.6192102101089</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.6192102101089</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7420,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="42">
@@ -7496,7 +7496,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
         <v>219.90409354896</v>
@@ -7517,25 +7517,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>633.815586718075</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T42" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U42" t="n">
-        <v>224.0352098159517</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V42" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W42" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X42" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="43">
@@ -7590,13 +7590,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7654,10 +7654,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C45" t="n">
-        <v>238.668476211275</v>
+        <v>136.6684421227571</v>
       </c>
       <c r="D45" t="n">
-        <v>238.668476211275</v>
+        <v>136.6684421227571</v>
       </c>
       <c r="E45" t="n">
-        <v>79.43102120581955</v>
+        <v>136.6684421227571</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7730,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
         <v>16.44142755506243</v>
@@ -7836,22 +7836,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7990,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>152.8659767558044</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>279.489774794024</v>
@@ -11302,13 +11302,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,7 +23393,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>44.92126469973746</v>
+        <v>145.8256901786384</v>
       </c>
       <c r="V12" t="n">
         <v>27.28274271114486</v>
@@ -23402,10 +23402,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23542,28 +23542,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23588,10 +23588,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>114.7359827411089</v>
       </c>
       <c r="X15" t="n">
         <v>0.2551407651970692</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,10 +23746,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>142.1351640958987</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24037,7 +24037,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.6162833128638</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>32.45288518101461</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24226,7 +24226,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>130.1411825545859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146.5266243978777</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>85.75162379344599</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,13 +24527,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>127.6932948133229</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>120.0869518323294</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>124.0475405230563</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,10 +24815,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24888,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>320.892250521429</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>56.45145718935684</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,10 +25441,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25456,7 +25456,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>117.13283663728</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25523,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25675,28 +25675,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>46.48311134337176</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.46777213178484</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>180.9206650946079</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T44" t="n">
-        <v>52.06643139743875</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>82.70951467913434</v>
+        <v>26.04446797136615</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362842.5762203431</v>
+        <v>362842.576220343</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382169.5468220648</v>
+        <v>382169.5468220647</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382169.5468220647</v>
+        <v>382169.5468220646</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382169.5468220647</v>
+        <v>382169.5468220646</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382169.5468220648</v>
+        <v>382169.5468220646</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362842.5762203431</v>
+        <v>362842.5762203429</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
@@ -26328,7 +26328,7 @@
         <v>189309.1702019179</v>
       </c>
       <c r="G2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="H2" t="n">
         <v>199392.8070375988</v>
@@ -26349,10 +26349,10 @@
         <v>199392.8070375987</v>
       </c>
       <c r="N2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
       <c r="P2" t="n">
         <v>189309.170201918</v>
@@ -26524,46 +26524,46 @@
         <v>88936.53468865147</v>
       </c>
       <c r="C6" t="n">
-        <v>157810.2912703413</v>
+        <v>157810.2912703412</v>
       </c>
       <c r="D6" t="n">
         <v>157810.2912703413</v>
       </c>
       <c r="E6" t="n">
-        <v>176659.8737011373</v>
+        <v>164021.7115462768</v>
       </c>
       <c r="F6" t="n">
-        <v>176659.8737011373</v>
+        <v>164021.7115462768</v>
       </c>
       <c r="G6" t="n">
-        <v>174830.562801966</v>
+        <v>162612.5521819256</v>
       </c>
       <c r="H6" t="n">
-        <v>184559.6057761331</v>
+        <v>172341.5951560927</v>
       </c>
       <c r="I6" t="n">
-        <v>184559.605776133</v>
+        <v>172341.5951560926</v>
       </c>
       <c r="J6" t="n">
-        <v>130787.0948859237</v>
+        <v>118569.0842658832</v>
       </c>
       <c r="K6" t="n">
-        <v>184559.6057761331</v>
+        <v>172341.5951560926</v>
       </c>
       <c r="L6" t="n">
-        <v>184559.6057761331</v>
+        <v>172341.5951560926</v>
       </c>
       <c r="M6" t="n">
-        <v>184559.6057761331</v>
+        <v>172341.5951560926</v>
       </c>
       <c r="N6" t="n">
-        <v>184559.6057761331</v>
+        <v>172341.5951560926</v>
       </c>
       <c r="O6" t="n">
-        <v>176659.8737011373</v>
+        <v>164021.7115462768</v>
       </c>
       <c r="P6" t="n">
-        <v>176659.8737011373</v>
+        <v>164021.7115462768</v>
       </c>
     </row>
   </sheetData>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>207.4499279476357</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>209.7848930768546</v>
-      </c>
       <c r="H2" t="n">
-        <v>315.1998484173909</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>129.3162007446645</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>47.25443990287962</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>95.24412853877564</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>222.8502412601817</v>
+        <v>372.7193592013314</v>
       </c>
       <c r="F5" t="n">
         <v>201.358201303431</v>
@@ -27633,7 +27633,7 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>183.644824353279</v>
+        <v>167.6935239082144</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>172.7228197186433</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>241.1586658756091</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>116.7038329865674</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>86.10929402411409</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>15.96843579630766</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>47.25443990287962</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,10 +34783,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>21.52426467247106</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N14" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>148.1480627106907</v>
@@ -38022,13 +38022,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
